--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinay/Desktop/Testing/Practice_Framework/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333A9669-735C-C643-AC1F-AEF09A585A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9933A53-20F4-7F48-8C0D-46CEB3C5BE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{2E901303-CD87-5C41-BA78-C19A84E5F533}"/>
   </bookViews>
@@ -37,19 +37,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>rashvin2714@gmail.com</t>
   </si>
   <si>
     <t>Schaumburg10</t>
+  </si>
+  <si>
+    <t>Login Details</t>
+  </si>
+  <si>
+    <t>Customer Sign in details</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Street-Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Password-New</t>
+  </si>
+  <si>
+    <t>Password-Confirm</t>
+  </si>
+  <si>
+    <t>Rashmi</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>1427 valley alke dr</t>
+  </si>
+  <si>
+    <t>Schaumburg</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +119,13 @@
       <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,10 +148,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,23 +476,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718B662F-8EDE-7845-A41D-4A01DAFC0A4B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>60195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
